--- a/STOCK UTN/2023/07 JULI/31 JULI - 05 AGUSTUS 2023.xlsx
+++ b/STOCK UTN/2023/07 JULI/31 JULI - 05 AGUSTUS 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JK KENKO'!$A$2:$C$259</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">IMPORT!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -11136,13 +11136,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -11324,20 +11324,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11347,47 +11347,7 @@
     <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11723,8 +11683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -13104,9 +13064,9 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A103" s="33"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1">
       <c r="A104" s="26" t="s">
@@ -13654,8 +13614,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2270"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A758" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A778" sqref="A778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13919,19 +13879,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>1656</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="34" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
         <v>TANGGAL : 31 JULI - 05 AGUSTUS 2023</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">

--- a/STOCK UTN/2023/07 JULI/31 JULI - 05 AGUSTUS 2023.xlsx
+++ b/STOCK UTN/2023/07 JULI/31 JULI - 05 AGUSTUS 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JK KENKO'!$A$2:$C$259</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">IMPORT!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -13614,8 +13614,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2270"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A758" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A778" sqref="A778"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A1725" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1765" sqref="A1765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13888,7 +13888,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 31 JULI - 05 AGUSTUS 2023</v>
+        <v>TANGGAL : LOG_AGUSTUS.XLSX</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
